--- a/Graphs/ar6(IR強度強い）の生データ.xlsx
+++ b/Graphs/ar6(IR強度強い）の生データ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="7" r:id="rId1"/>
@@ -15,9 +15,6 @@
     <sheet name="15" sheetId="5" r:id="rId6"/>
     <sheet name="16" sheetId="6" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -177,7 +174,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -195,19 +192,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1397,7 +1382,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1407,11 +1392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352515944"/>
-        <c:axId val="352517904"/>
+        <c:axId val="205573384"/>
+        <c:axId val="205578480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352515944"/>
+        <c:axId val="205573384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1525,12 +1510,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352517904"/>
+        <c:crossAx val="205578480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352517904"/>
+        <c:axId val="205578480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,6 +1561,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1639,7 +1625,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352515944"/>
+        <c:crossAx val="205573384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2848,11 +2834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1043628928"/>
-        <c:axId val="1043621872"/>
+        <c:axId val="414703440"/>
+        <c:axId val="414697168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1043628928"/>
+        <c:axId val="414703440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2966,12 +2952,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043621872"/>
+        <c:crossAx val="414697168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1043621872"/>
+        <c:axId val="414697168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3017,7 +3003,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3081,7 +3066,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043628928"/>
+        <c:crossAx val="414703440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4293,11 +4278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1043620696"/>
-        <c:axId val="1043628144"/>
+        <c:axId val="414700696"/>
+        <c:axId val="414701872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1043620696"/>
+        <c:axId val="414700696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -4411,12 +4396,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043628144"/>
+        <c:crossAx val="414701872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1043628144"/>
+        <c:axId val="414701872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4462,7 +4447,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4526,7 +4510,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043620696"/>
+        <c:crossAx val="414700696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5741,11 +5725,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1043648528"/>
-        <c:axId val="1043645000"/>
+        <c:axId val="414703048"/>
+        <c:axId val="455430032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1043648528"/>
+        <c:axId val="414703048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -5859,12 +5843,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043645000"/>
+        <c:crossAx val="455430032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1043645000"/>
+        <c:axId val="455430032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5910,7 +5894,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5974,7 +5957,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043648528"/>
+        <c:crossAx val="414703048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7186,11 +7169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454868040"/>
-        <c:axId val="454868432"/>
+        <c:axId val="455426896"/>
+        <c:axId val="455431992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454868040"/>
+        <c:axId val="455426896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -7304,12 +7287,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454868432"/>
+        <c:crossAx val="455431992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454868432"/>
+        <c:axId val="455431992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7418,7 +7401,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454868040"/>
+        <c:crossAx val="455426896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8633,11 +8616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1043629712"/>
-        <c:axId val="1043619520"/>
+        <c:axId val="455432384"/>
+        <c:axId val="455426504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1043629712"/>
+        <c:axId val="455432384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -8751,12 +8734,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043619520"/>
+        <c:crossAx val="455426504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1043619520"/>
+        <c:axId val="455426504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8866,7 +8849,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043629712"/>
+        <c:crossAx val="455432384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9005,7 +8988,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -9023,19 +9006,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -10225,7 +10196,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10235,11 +10206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352521040"/>
-        <c:axId val="352521432"/>
+        <c:axId val="205573776"/>
+        <c:axId val="205574168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352521040"/>
+        <c:axId val="205573776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -10353,12 +10324,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352521432"/>
+        <c:crossAx val="205574168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352521432"/>
+        <c:axId val="205574168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10404,6 +10375,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10467,7 +10439,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352521040"/>
+        <c:crossAx val="205573776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10606,7 +10578,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10624,19 +10596,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -11826,7 +11786,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11836,11 +11796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352516336"/>
-        <c:axId val="352518296"/>
+        <c:axId val="205576128"/>
+        <c:axId val="205575736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352516336"/>
+        <c:axId val="205576128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -11954,12 +11914,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352518296"/>
+        <c:crossAx val="205575736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352518296"/>
+        <c:axId val="205575736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12005,6 +11965,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12068,7 +12029,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352516336"/>
+        <c:crossAx val="205576128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12207,7 +12168,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -12218,26 +12179,14 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -13427,7 +13376,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13437,11 +13386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352519472"/>
-        <c:axId val="352515160"/>
+        <c:axId val="205576520"/>
+        <c:axId val="205571032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352519472"/>
+        <c:axId val="205576520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -13555,12 +13504,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352515160"/>
+        <c:crossAx val="205571032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352515160"/>
+        <c:axId val="205571032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13606,6 +13555,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13669,7 +13619,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352519472"/>
+        <c:crossAx val="205576520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13808,7 +13758,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -13819,26 +13769,14 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -15028,7 +14966,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15038,11 +14976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423961104"/>
-        <c:axId val="423963456"/>
+        <c:axId val="205571424"/>
+        <c:axId val="205571816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423961104"/>
+        <c:axId val="205571424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -15156,12 +15094,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423963456"/>
+        <c:crossAx val="205571816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423963456"/>
+        <c:axId val="205571816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15207,6 +15145,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15270,7 +15209,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423961104"/>
+        <c:crossAx val="205571424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16639,11 +16578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423960712"/>
-        <c:axId val="423956792"/>
+        <c:axId val="414703832"/>
+        <c:axId val="414701088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423960712"/>
+        <c:axId val="414703832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -16757,12 +16696,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423956792"/>
+        <c:crossAx val="414701088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423956792"/>
+        <c:axId val="414701088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16808,6 +16747,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16871,7 +16811,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423960712"/>
+        <c:crossAx val="414703832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24344,11 +24284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423961888"/>
-        <c:axId val="423962672"/>
+        <c:axId val="414697560"/>
+        <c:axId val="414701480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423961888"/>
+        <c:axId val="414697560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -24462,12 +24402,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423962672"/>
+        <c:crossAx val="414701480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423962672"/>
+        <c:axId val="414701480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24513,6 +24453,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -24576,7 +24517,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423961888"/>
+        <c:crossAx val="414697560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25983,11 +25924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423957576"/>
-        <c:axId val="423957968"/>
+        <c:axId val="414704224"/>
+        <c:axId val="414704616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423957576"/>
+        <c:axId val="414704224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -26101,12 +26042,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423957968"/>
+        <c:crossAx val="414704616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423957968"/>
+        <c:axId val="414704616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26215,7 +26156,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423957576"/>
+        <c:crossAx val="414704224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -27424,11 +27365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="578460824"/>
-        <c:axId val="578461216"/>
+        <c:axId val="414699912"/>
+        <c:axId val="414699128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="578460824"/>
+        <c:axId val="414699912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -27542,12 +27483,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578461216"/>
+        <c:crossAx val="414699128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="578461216"/>
+        <c:axId val="414699128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27593,7 +27534,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -27657,7 +27597,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578460824"/>
+        <c:crossAx val="414699912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -35757,1499 +35697,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="グラフ"/>
-      <sheetName val="11"/>
-      <sheetName val="12"/>
-      <sheetName val="13"/>
-      <sheetName val="14"/>
-      <sheetName val="15"/>
-      <sheetName val="16"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1">
-            <v>6826</v>
-          </cell>
-          <cell r="E1">
-            <v>66.499999999999886</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>6624</v>
-          </cell>
-          <cell r="E2">
-            <v>65.834999999999894</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>6883</v>
-          </cell>
-          <cell r="E3">
-            <v>65.169999999999902</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>6134</v>
-          </cell>
-          <cell r="E4">
-            <v>63.839999999999897</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>6498</v>
-          </cell>
-          <cell r="E5">
-            <v>63.174999999999891</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>7002</v>
-          </cell>
-          <cell r="E6">
-            <v>62.509999999999899</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>6975</v>
-          </cell>
-          <cell r="E7">
-            <v>61.844999999999892</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>6338</v>
-          </cell>
-          <cell r="E8">
-            <v>61.1799999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>6742</v>
-          </cell>
-          <cell r="E9">
-            <v>60.84749999999989</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>6790</v>
-          </cell>
-          <cell r="E10">
-            <v>60.514999999999894</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>6712</v>
-          </cell>
-          <cell r="E11">
-            <v>60.182499999999898</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>7131</v>
-          </cell>
-          <cell r="E12">
-            <v>59.849999999999888</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>6597</v>
-          </cell>
-          <cell r="E13">
-            <v>59.184999999999896</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>6611</v>
-          </cell>
-          <cell r="E14">
-            <v>58.519999999999889</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>6259</v>
-          </cell>
-          <cell r="E15">
-            <v>57.189999999999891</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>6829</v>
-          </cell>
-          <cell r="E16">
-            <v>55.859999999999893</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>6511</v>
-          </cell>
-          <cell r="E17">
-            <v>55.416666666666593</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>6524</v>
-          </cell>
-          <cell r="E18">
-            <v>54.973333333333194</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>6993</v>
-          </cell>
-          <cell r="E19">
-            <v>54.529999999999895</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>6419</v>
-          </cell>
-          <cell r="E20">
-            <v>53.864999999999888</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>6076</v>
-          </cell>
-          <cell r="E21">
-            <v>53.199999999999896</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>8098</v>
-          </cell>
-          <cell r="E22">
-            <v>51.869999999999891</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>7386</v>
-          </cell>
-          <cell r="E23">
-            <v>51.204999999999892</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>6881</v>
-          </cell>
-          <cell r="E24">
-            <v>50.539999999999893</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>7110</v>
-          </cell>
-          <cell r="E25">
-            <v>49.209999999999894</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>7050</v>
-          </cell>
-          <cell r="E26">
-            <v>48.544999999999895</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>7291</v>
-          </cell>
-          <cell r="E27">
-            <v>47.879999999999889</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>7180</v>
-          </cell>
-          <cell r="E28">
-            <v>47.214999999999897</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>6280</v>
-          </cell>
-          <cell r="E29">
-            <v>46.549999999999891</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>6522</v>
-          </cell>
-          <cell r="E30">
-            <v>45.884999999999899</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>6787</v>
-          </cell>
-          <cell r="E31">
-            <v>45.219999999999892</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>6610</v>
-          </cell>
-          <cell r="E32">
-            <v>44.776666666666593</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>6233</v>
-          </cell>
-          <cell r="E33">
-            <v>44.333333333333194</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>5776</v>
-          </cell>
-          <cell r="E34">
-            <v>43.889999999999894</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>6522</v>
-          </cell>
-          <cell r="E35">
-            <v>43.446666666666594</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>7128</v>
-          </cell>
-          <cell r="E36">
-            <v>43.003333333333195</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>7391</v>
-          </cell>
-          <cell r="E37">
-            <v>42.559999999999896</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>6151</v>
-          </cell>
-          <cell r="E38">
-            <v>41.894999999999889</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>6062</v>
-          </cell>
-          <cell r="E39">
-            <v>41.229999999999897</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>6298</v>
-          </cell>
-          <cell r="E40">
-            <v>40.786666666666598</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>7071</v>
-          </cell>
-          <cell r="E41">
-            <v>40.343333333333199</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>7647</v>
-          </cell>
-          <cell r="E42">
-            <v>39.899999999999892</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>6789</v>
-          </cell>
-          <cell r="E43">
-            <v>39.234999999999893</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>5820</v>
-          </cell>
-          <cell r="E44">
-            <v>38.569999999999894</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>6200</v>
-          </cell>
-          <cell r="E45">
-            <v>38.126666666666594</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>6756</v>
-          </cell>
-          <cell r="E46">
-            <v>37.683333333333195</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>8007</v>
-          </cell>
-          <cell r="E47">
-            <v>37.239999999999888</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>6946</v>
-          </cell>
-          <cell r="E48">
-            <v>36.574999999999896</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>5583</v>
-          </cell>
-          <cell r="E49">
-            <v>35.90999999999989</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>5965</v>
-          </cell>
-          <cell r="E50">
-            <v>35.577499999999894</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>6275</v>
-          </cell>
-          <cell r="E51">
-            <v>35.244999999999898</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>7153</v>
-          </cell>
-          <cell r="E52">
-            <v>34.912499999999895</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>8472</v>
-          </cell>
-          <cell r="E53">
-            <v>34.579999999999892</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>5988</v>
-          </cell>
-          <cell r="E54">
-            <v>33.914999999999893</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>5823</v>
-          </cell>
-          <cell r="E55">
-            <v>33.249999999999893</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>5940</v>
-          </cell>
-          <cell r="E56">
-            <v>32.806666666666594</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>7881</v>
-          </cell>
-          <cell r="E57">
-            <v>32.363333333333294</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>8062</v>
-          </cell>
-          <cell r="E58">
-            <v>31.919999999999895</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>5928</v>
-          </cell>
-          <cell r="E59">
-            <v>31.254999999999896</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>4677</v>
-          </cell>
-          <cell r="E60">
-            <v>30.589999999999897</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>5564</v>
-          </cell>
-          <cell r="E61">
-            <v>30.14666666666659</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>6396</v>
-          </cell>
-          <cell r="E62">
-            <v>29.703333333333291</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>8155</v>
-          </cell>
-          <cell r="E63">
-            <v>29.259999999999891</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>7950</v>
-          </cell>
-          <cell r="E64">
-            <v>28.816666666666592</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>5563</v>
-          </cell>
-          <cell r="E65">
-            <v>28.373333333333292</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>4938</v>
-          </cell>
-          <cell r="E66">
-            <v>27.929999999999893</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>5597</v>
-          </cell>
-          <cell r="E67">
-            <v>27.59749999999989</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>7295</v>
-          </cell>
-          <cell r="E68">
-            <v>27.264999999999894</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>8288</v>
-          </cell>
-          <cell r="E69">
-            <v>26.932499999999891</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>8724</v>
-          </cell>
-          <cell r="E70">
-            <v>26.599999999999895</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>6947</v>
-          </cell>
-          <cell r="E71">
-            <v>25.934999999999896</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>4983</v>
-          </cell>
-          <cell r="E72">
-            <v>25.269999999999897</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>5345</v>
-          </cell>
-          <cell r="E73">
-            <v>24.937499999999893</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>6632</v>
-          </cell>
-          <cell r="E74">
-            <v>24.60499999999989</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>8306</v>
-          </cell>
-          <cell r="E75">
-            <v>24.272499999999894</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>8963</v>
-          </cell>
-          <cell r="E76">
-            <v>23.939999999999891</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>6712</v>
-          </cell>
-          <cell r="E77">
-            <v>23.496666666666592</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>5050</v>
-          </cell>
-          <cell r="E78">
-            <v>23.053333333333292</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>4748</v>
-          </cell>
-          <cell r="E79">
-            <v>22.609999999999893</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>5855</v>
-          </cell>
-          <cell r="E80">
-            <v>22.166666666666593</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>7359</v>
-          </cell>
-          <cell r="E81">
-            <v>21.723333333333294</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>9335</v>
-          </cell>
-          <cell r="E82">
-            <v>21.279999999999895</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>8447</v>
-          </cell>
-          <cell r="E83">
-            <v>20.836666666666595</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>6124</v>
-          </cell>
-          <cell r="E84">
-            <v>20.393333333333295</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>4455</v>
-          </cell>
-          <cell r="E85">
-            <v>19.949999999999896</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>4912</v>
-          </cell>
-          <cell r="E86">
-            <v>19.683999999999891</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>5764</v>
-          </cell>
-          <cell r="E87">
-            <v>19.417999999999893</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>7579</v>
-          </cell>
-          <cell r="E88">
-            <v>19.151999999999894</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>8857</v>
-          </cell>
-          <cell r="E89">
-            <v>18.885999999999896</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>9215</v>
-          </cell>
-          <cell r="E90">
-            <v>18.619999999999891</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>7316</v>
-          </cell>
-          <cell r="E91">
-            <v>18.176666666666591</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>4915</v>
-          </cell>
-          <cell r="E92">
-            <v>17.733333333333292</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>4924</v>
-          </cell>
-          <cell r="E93">
-            <v>17.289999999999893</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>4644</v>
-          </cell>
-          <cell r="E94">
-            <v>15.959999999999894</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>5872</v>
-          </cell>
-          <cell r="E95">
-            <v>15.627499999999891</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>7815</v>
-          </cell>
-          <cell r="E96">
-            <v>15.294999999999895</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>9269</v>
-          </cell>
-          <cell r="E97">
-            <v>14.962499999999892</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>9678</v>
-          </cell>
-          <cell r="E98">
-            <v>14.629999999999896</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>7042</v>
-          </cell>
-          <cell r="E99">
-            <v>14.186666666666596</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>5176</v>
-          </cell>
-          <cell r="E100">
-            <v>13.743333333333297</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>4552</v>
-          </cell>
-          <cell r="E101">
-            <v>13.299999999999891</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>5118</v>
-          </cell>
-          <cell r="E102">
-            <v>13.033999999999892</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103">
-            <v>5270</v>
-          </cell>
-          <cell r="E103">
-            <v>12.767999999999894</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104">
-            <v>7136</v>
-          </cell>
-          <cell r="E104">
-            <v>12.501999999999896</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105">
-            <v>8534</v>
-          </cell>
-          <cell r="E105">
-            <v>12.235999999999891</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106">
-            <v>9544</v>
-          </cell>
-          <cell r="E106">
-            <v>11.969999999999892</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107">
-            <v>8551</v>
-          </cell>
-          <cell r="E107">
-            <v>11.703999999999894</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108">
-            <v>6770</v>
-          </cell>
-          <cell r="E108">
-            <v>11.437999999999896</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109">
-            <v>5595</v>
-          </cell>
-          <cell r="E109">
-            <v>11.17199999999989</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="C110">
-            <v>4729</v>
-          </cell>
-          <cell r="E110">
-            <v>10.905999999999892</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="C111">
-            <v>4640</v>
-          </cell>
-          <cell r="E111">
-            <v>10.639999999999894</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="C112">
-            <v>5369</v>
-          </cell>
-          <cell r="E112">
-            <v>10.307499999999891</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="C113">
-            <v>6975</v>
-          </cell>
-          <cell r="E113">
-            <v>9.9749999999999943</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="C114">
-            <v>7758</v>
-          </cell>
-          <cell r="E114">
-            <v>9.6424999999998917</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="C115">
-            <v>9454</v>
-          </cell>
-          <cell r="E115">
-            <v>9.3099999999999952</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="C116">
-            <v>8910</v>
-          </cell>
-          <cell r="E116">
-            <v>9.0883333333332956</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="C117">
-            <v>8825</v>
-          </cell>
-          <cell r="E117">
-            <v>8.8666666666665961</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="C118">
-            <v>6536</v>
-          </cell>
-          <cell r="E118">
-            <v>8.644999999999996</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="C119">
-            <v>5044</v>
-          </cell>
-          <cell r="E119">
-            <v>8.4233333333332965</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="C120">
-            <v>4643</v>
-          </cell>
-          <cell r="E120">
-            <v>8.2016666666665969</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="C121">
-            <v>4581</v>
-          </cell>
-          <cell r="E121">
-            <v>7.9799999999999969</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="C122">
-            <v>5393</v>
-          </cell>
-          <cell r="E122">
-            <v>7.7139999999999915</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="C123">
-            <v>6696</v>
-          </cell>
-          <cell r="E123">
-            <v>7.4479999999998938</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="C124">
-            <v>7577</v>
-          </cell>
-          <cell r="E124">
-            <v>7.1819999999999951</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="C125">
-            <v>9404</v>
-          </cell>
-          <cell r="E125">
-            <v>6.9159999999999968</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="C126">
-            <v>10196</v>
-          </cell>
-          <cell r="E126">
-            <v>6.6499999999999915</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="C127">
-            <v>8761</v>
-          </cell>
-          <cell r="E127">
-            <v>6.3839999999999932</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="C128">
-            <v>8832</v>
-          </cell>
-          <cell r="E128">
-            <v>6.117999999999995</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="C129">
-            <v>6197</v>
-          </cell>
-          <cell r="E129">
-            <v>5.8519999999999968</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="C130">
-            <v>4920</v>
-          </cell>
-          <cell r="E130">
-            <v>5.5859999999999914</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="C131">
-            <v>4756</v>
-          </cell>
-          <cell r="E131">
-            <v>5.3199999999999932</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="C132">
-            <v>5160</v>
-          </cell>
-          <cell r="E132">
-            <v>5.1299999999999955</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="C133">
-            <v>5050</v>
-          </cell>
-          <cell r="E133">
-            <v>4.9399999999999906</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="C134">
-            <v>6140</v>
-          </cell>
-          <cell r="E134">
-            <v>4.7499999999999929</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="C135">
-            <v>7399</v>
-          </cell>
-          <cell r="E135">
-            <v>4.5599999999999952</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="C136">
-            <v>8445</v>
-          </cell>
-          <cell r="E136">
-            <v>4.3699999999999903</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="C137">
-            <v>9254</v>
-          </cell>
-          <cell r="E137">
-            <v>4.1799999999999926</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="C138">
-            <v>10082</v>
-          </cell>
-          <cell r="E138">
-            <v>3.9899999999999949</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="C139">
-            <v>9604</v>
-          </cell>
-          <cell r="E139">
-            <v>3.7683333333332953</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="C140">
-            <v>8609</v>
-          </cell>
-          <cell r="E140">
-            <v>3.5466666666665958</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141">
-            <v>7892</v>
-          </cell>
-          <cell r="E141">
-            <v>3.3249999999999957</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142">
-            <v>6245</v>
-          </cell>
-          <cell r="E142">
-            <v>3.1033333333332962</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="C143">
-            <v>5130</v>
-          </cell>
-          <cell r="E143">
-            <v>2.8816666666665967</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="C144">
-            <v>4839</v>
-          </cell>
-          <cell r="E144">
-            <v>2.6599999999999966</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="C145">
-            <v>4873</v>
-          </cell>
-          <cell r="E145">
-            <v>2.5390909090908949</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="C146">
-            <v>5082</v>
-          </cell>
-          <cell r="E146">
-            <v>2.4181818181818002</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="C147">
-            <v>5169</v>
-          </cell>
-          <cell r="E147">
-            <v>2.2972727272726914</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="C148">
-            <v>6056</v>
-          </cell>
-          <cell r="E148">
-            <v>2.1763636363635968</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="C149">
-            <v>6660</v>
-          </cell>
-          <cell r="E149">
-            <v>2.0554545454544879</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="C150">
-            <v>7336</v>
-          </cell>
-          <cell r="E150">
-            <v>1.9345454545453933</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="C151">
-            <v>9179</v>
-          </cell>
-          <cell r="E151">
-            <v>1.8136363636362987</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="C152">
-            <v>10030</v>
-          </cell>
-          <cell r="E152">
-            <v>1.6927272727271898</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="C153">
-            <v>9874</v>
-          </cell>
-          <cell r="E153">
-            <v>1.5718181818180952</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="C154">
-            <v>10213</v>
-          </cell>
-          <cell r="E154">
-            <v>1.4509090909089863</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="C155">
-            <v>10242</v>
-          </cell>
-          <cell r="E155">
-            <v>1.3299999999999912</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="C156">
-            <v>10176</v>
-          </cell>
-          <cell r="E156">
-            <v>1.1822222222221868</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="C157">
-            <v>8584</v>
-          </cell>
-          <cell r="E157">
-            <v>1.0344444444443965</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="C158">
-            <v>7316</v>
-          </cell>
-          <cell r="E158">
-            <v>0.88666666666659211</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="C159">
-            <v>6591</v>
-          </cell>
-          <cell r="E159">
-            <v>0.73888888888878768</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="C160">
-            <v>6167</v>
-          </cell>
-          <cell r="E160">
-            <v>0.59111111111109693</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="C161">
-            <v>5919</v>
-          </cell>
-          <cell r="E161">
-            <v>0.4433333333332925</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="C162">
-            <v>5295</v>
-          </cell>
-          <cell r="E162">
-            <v>0.29555555555548807</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="C163">
-            <v>5156</v>
-          </cell>
-          <cell r="E163">
-            <v>0.14777777777769785</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="C164">
-            <v>4719</v>
-          </cell>
-          <cell r="E164">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="C165">
-            <v>4871</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="C166">
-            <v>4787</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="C167">
-            <v>5263</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="C168">
-            <v>5654</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="C169">
-            <v>5995</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="C170">
-            <v>6045</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="C171">
-            <v>6680</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="C172">
-            <v>7352</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="C173">
-            <v>7422</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="C174">
-            <v>7621</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="C175">
-            <v>7850</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="C176">
-            <v>8201</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="C177">
-            <v>8906</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="C178">
-            <v>8966</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="C179">
-            <v>9121</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="C180">
-            <v>9090</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="C181">
-            <v>9365</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="C182">
-            <v>9008</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="C183">
-            <v>9714</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="C184">
-            <v>10508</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="C185">
-            <v>9881</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="C186">
-            <v>9652</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="C187">
-            <v>9596</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="C188">
-            <v>10521</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="C189">
-            <v>10171</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="C190">
-            <v>10190</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="C191">
-            <v>10371</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="C192">
-            <v>10278</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="C193">
-            <v>9854</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="C194">
-            <v>9421</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="C195">
-            <v>9978</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -37539,8 +35986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47233,7 +45680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+    <sheetView topLeftCell="A150" workbookViewId="0">
       <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
